--- a/Test-Management-and-Bug-Tracker-Template.xlsx
+++ b/Test-Management-and-Bug-Tracker-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="279">
   <si>
     <t>Expected result:</t>
   </si>
@@ -429,14 +429,6 @@
     <t>Verify 'CREATE NEW' button</t>
   </si>
   <si>
-    <t>1. Open the application
-2. Click on 'LOG IN' button on NavBar
-3. Click on 'CREATE NEW' button</t>
-  </si>
-  <si>
-    <t>Sign Up page should be opened</t>
-  </si>
-  <si>
     <t xml:space="preserve">User is logged in </t>
   </si>
   <si>
@@ -445,9 +437,6 @@
   <si>
     <t>1. Open the applicatiton and login with user
 2. Click on 'User's profile' link on NavBar</t>
-  </si>
-  <si>
-    <t>Verify 'EDIT' button on My Profile page</t>
   </si>
   <si>
     <t>1. Open the applicatiton and login with user
@@ -682,12 +671,6 @@
   </si>
   <si>
     <t>Verify 'About me' section on My profile page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'User's attributes' section should contain the following information: 
-- Full Name 
-- Email
-- Total spoilers counter (set to 0)</t>
   </si>
   <si>
     <t xml:space="preserve"> First section should contain the following information: 
@@ -822,12 +805,236 @@
     <t>1. Open the application and login with user
 2. Create spoilers with title and description</t>
   </si>
+  <si>
+    <t>UC1-8</t>
+  </si>
+  <si>
+    <t>UC1-9</t>
+  </si>
+  <si>
+    <t>UC1-10</t>
+  </si>
+  <si>
+    <t>UC1-11</t>
+  </si>
+  <si>
+    <t>UC1-12</t>
+  </si>
+  <si>
+    <t>UC1-13</t>
+  </si>
+  <si>
+    <t>UC1-14</t>
+  </si>
+  <si>
+    <t>Verify NavBar on Home page for  logged in users</t>
+  </si>
+  <si>
+    <t>Home page for not logged users is opened and NavBar should contain the following buttons and links:
+- User's profile link ( on the left side)
+- Home page link with label 'STORYSPOIL' ( on the left side)
+- 'CREATE SPOILER' button (on the right side)
+- 'LOGOUT' button (on the right side)</t>
+  </si>
+  <si>
+    <t>Verify Welcome message on Home page for logged in users</t>
+  </si>
+  <si>
+    <t>Verify welcoming message displays the User's name</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user "Vanina"</t>
+  </si>
+  <si>
+    <t>Verify section under Search functionality</t>
+  </si>
+  <si>
+    <t>User is logged in and there are no created spoilers</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Scroll down under Search functionality</t>
+  </si>
+  <si>
+    <t>Verify the section includes the following information:
+- Message : "No Spoilers Yet! "
+- 'WRITE SPOILER' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify 'WRITE SPOILER' button </t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Scroll down and click on 'WRITE SPOILER' button</t>
+  </si>
+  <si>
+    <t>Create Spoiler page should be opened</t>
+  </si>
+  <si>
+    <t>Verify 'User's profile' link on NavBar for logged in users</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on 'User's profile' link on NavBar</t>
+  </si>
+  <si>
+    <t>My Profile page should be opened</t>
+  </si>
+  <si>
+    <t>Verify 'STORYSPOIL' link on NavBar for logged in users</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on home page link with labeL 'STORYSPOIL' on NavBar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify 'CREATE SPOILER' button on NavBar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify 'LOGOUT' button on NavBar </t>
+  </si>
+  <si>
+    <t>User should be navigated to Create Spoiler page</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on 'CREATE SPOILER' button on NavBar</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on 'LOGOUT' button on NavBar</t>
+  </si>
+  <si>
+    <t>User should be logged out and redirected to Home page for not logged in users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page for logged in users should be opened and the following feautures should be present:
+- NavBar on top of the page
+- Welcome message 
+- Search field 
+- Seach button
+- Section under Search functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Home page for logged in users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify 'EDIT' button on first section </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'User's attributes' section should contain the following information: 
+- Full Name of the user
+- Email of the user
+- Total spoilers counter (set to 0)</t>
+  </si>
+  <si>
+    <t>UC4-6</t>
+  </si>
+  <si>
+    <t>UC4-7</t>
+  </si>
+  <si>
+    <t>UC4-8</t>
+  </si>
+  <si>
+    <t>UC4-9</t>
+  </si>
+  <si>
+    <t>UC4-10</t>
+  </si>
+  <si>
+    <t>UC4-11</t>
+  </si>
+  <si>
+    <t>UC4-12</t>
+  </si>
+  <si>
+    <t>UC4-13</t>
+  </si>
+  <si>
+    <t>UC4-14</t>
+  </si>
+  <si>
+    <t>Verify Edit Profile Info page</t>
+  </si>
+  <si>
+    <t>User should be redirected to Edit Profile Info page and the following fields and buttons should be present:
+- First Name field
+- Middle Name field
+- Last Name field
+- 'About me' field
+- Picture URL field
+- 'ADD' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user is NOT able to sreate a spoiler with both valid title and description and invalid URL for the picture </t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user 
+2. Click on 'CREATE SPOILER' link on NavBar
+3. Enter the following information:
+- Story title: 'Go to park'
+- Description: 'walk my dog'
+- Picture URL: "cat.jpg"
+3. Click on 'CREATE' button</t>
+  </si>
+  <si>
+    <t>Verify validation message for invalid URL is displayed</t>
+  </si>
+  <si>
+    <t>UC5-5</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on 'SHARE' button for created spoiler</t>
+  </si>
+  <si>
+    <t>Share Spoiler page should be opened</t>
+  </si>
+  <si>
+    <t>Verify 'SHARE' button for created story spoilers</t>
+  </si>
+  <si>
+    <t>Verify Share Spoiler page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be navigated to Share Spoiler page and the following fields and buttons should be present:
+- 'Add a short message' field 
+- 'Add an email' field
+- 'Add The name of your friend' field 
+- 'SHARE' button </t>
+  </si>
+  <si>
+    <t>UC6-6</t>
+  </si>
+  <si>
+    <t>UC6-7</t>
+  </si>
+  <si>
+    <t>Blocking</t>
+  </si>
+  <si>
+    <t>1. Open the application and login with user
+2. Click on 'Edit' button for created spoiler</t>
+  </si>
+  <si>
+    <t>Edit Profile Info page cannot be accessed</t>
+  </si>
+  <si>
+    <t>Share Spoiler page cannot be accessed</t>
+  </si>
+  <si>
+    <t>Test case for Share Spoiler page cannot be perfomed due to inability to access Share Spoiler page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case for Edit Profile Info page cannot be perfomed due to inability to access Edit Profile page </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -971,8 +1178,33 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,6 +1238,30 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1167,7 +1423,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,6 +1600,55 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2794,7 +3099,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_134511" displayName="Table_134511" ref="A3:G10" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="57" headerRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_134511" displayName="Table_134511" ref="A3:G19" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="57" headerRowBorderDxfId="59">
   <tableColumns count="7">
     <tableColumn id="1" name="Test Case ID" dataDxfId="56"/>
     <tableColumn id="3" name="Prerequisites" dataDxfId="55"/>
@@ -2839,7 +3144,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_1345" displayName="Table_1345" ref="A3:G8" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" dataCellStyle="Style 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_1345" displayName="Table_1345" ref="A3:G17" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" dataCellStyle="Style 1">
   <tableColumns count="7">
     <tableColumn id="1" name="Test Case ID" dataDxfId="26" dataCellStyle="Style 1"/>
     <tableColumn id="2" name="Prerequisites" dataDxfId="25" dataCellStyle="Style 1"/>
@@ -2854,7 +3159,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_134510" displayName="Table_134510" ref="A3:G7" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_134510" displayName="Table_134510" ref="A3:G8" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <tableColumns count="7">
     <tableColumn id="1" name="Test Case ID" dataDxfId="16"/>
     <tableColumn id="2" name="Prerequisites" dataDxfId="15"/>
@@ -2869,7 +3174,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_13451014" displayName="Table_13451014" ref="A3:G8" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_13451014" displayName="Table_13451014" ref="A3:G10" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <tableColumns count="7">
     <tableColumn id="1" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" name="Prerequisites" dataDxfId="5"/>
@@ -3138,7 +3443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3148,9 +3453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3213,7 +3518,7 @@
     </row>
     <row r="4" spans="1:16" s="28" customFormat="1" ht="86.4">
       <c r="A4" s="45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>77</v>
@@ -3225,7 +3530,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>75</v>
@@ -3235,7 +3540,7 @@
     </row>
     <row r="5" spans="1:16" s="28" customFormat="1" ht="28.8">
       <c r="A5" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>77</v>
@@ -3256,7 +3561,7 @@
     </row>
     <row r="6" spans="1:16" s="28" customFormat="1" ht="28.8">
       <c r="A6" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>77</v>
@@ -3277,7 +3582,7 @@
     </row>
     <row r="7" spans="1:16" s="28" customFormat="1" ht="28.8">
       <c r="A7" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>77</v>
@@ -3298,7 +3603,7 @@
     </row>
     <row r="8" spans="1:16" s="28" customFormat="1" ht="28.8">
       <c r="A8" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>77</v>
@@ -3319,7 +3624,7 @@
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" ht="57.6">
       <c r="A9" s="45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>77</v>
@@ -3340,7 +3645,7 @@
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="43.2">
       <c r="A10" s="45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>77</v>
@@ -3358,89 +3663,197 @@
         <v>70</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="14.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" s="30" customFormat="1" ht="14.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" s="30" customFormat="1" ht="14.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="13.8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="100.8">
+      <c r="A11" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:16" s="30" customFormat="1" ht="100.8">
+      <c r="A12" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" s="30" customFormat="1" ht="28.8">
+      <c r="A13" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="43.2">
+      <c r="A14" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:16" s="30" customFormat="1" ht="28.8">
+      <c r="A15" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="28.8">
+      <c r="A16" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:7" s="30" customFormat="1" ht="28.8">
+      <c r="A17" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1" ht="43.2">
+      <c r="A18" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A19" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="13.8">
       <c r="A20" s="2"/>
@@ -3457,7 +3870,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F19">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3473,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3537,7 +3950,7 @@
     </row>
     <row r="4" spans="1:16" ht="158.4">
       <c r="A4" s="46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>77</v>
@@ -3555,13 +3968,13 @@
         <v>70</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="115.2">
       <c r="A5" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>77</v>
@@ -3583,7 +3996,7 @@
     </row>
     <row r="6" spans="1:16" ht="144">
       <c r="A6" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>77</v>
@@ -3605,7 +4018,7 @@
     </row>
     <row r="7" spans="1:16" ht="144">
       <c r="A7" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>77</v>
@@ -3614,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>82</v>
@@ -3626,7 +4039,7 @@
     </row>
     <row r="8" spans="1:16" ht="144">
       <c r="A8" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>77</v>
@@ -3647,7 +4060,7 @@
     </row>
     <row r="9" spans="1:16" ht="144">
       <c r="A9" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>77</v>
@@ -3665,12 +4078,12 @@
         <v>70</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="43.2">
       <c r="A10" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>77</v>
@@ -3767,7 +4180,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3829,7 +4242,7 @@
     </row>
     <row r="4" spans="1:16" s="34" customFormat="1" ht="100.8">
       <c r="A4" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>77</v>
@@ -3852,7 +4265,7 @@
     </row>
     <row r="5" spans="1:16" s="34" customFormat="1" ht="43.2">
       <c r="A5" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>77</v>
@@ -3864,7 +4277,7 @@
         <v>95</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>75</v>
@@ -3873,135 +4286,135 @@
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" s="34" customFormat="1" ht="86.4">
+    <row r="6" spans="1:16" s="34" customFormat="1" ht="28.8">
       <c r="A6" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>96</v>
+      <c r="C6" s="68" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="68"/>
       <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="86.4">
       <c r="A7" s="47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="51"/>
+      <c r="E7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="86.4">
       <c r="A8" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="86.4">
       <c r="A9" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:16" s="34" customFormat="1" ht="43.2">
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="86.4">
       <c r="A10" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>107</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="43.2">
       <c r="A11" s="47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4029,8 +4442,8 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A8"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4092,19 +4505,19 @@
     </row>
     <row r="4" spans="1:16" s="21" customFormat="1" ht="72">
       <c r="A4" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>75</v>
@@ -4117,71 +4530,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="21" customFormat="1" ht="43.2">
+    <row r="5" spans="1:16" s="21" customFormat="1" ht="72">
       <c r="A5" s="53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>117</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="70"/>
       <c r="P5" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="72">
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="43.2">
       <c r="A6" s="53" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="F6" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="72">
       <c r="A7" s="53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>75</v>
@@ -4193,19 +4606,19 @@
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" ht="43.2">
       <c r="A8" s="53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>75</v>
@@ -4213,86 +4626,130 @@
       <c r="G8" s="20"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:16" s="21" customFormat="1" ht="13.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="13.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="129.6">
+      <c r="A9" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A10" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A11" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A12" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A13" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A14" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A15" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:16" s="21" customFormat="1" ht="14.4">
+      <c r="A16" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="14.4">
+      <c r="A17" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="13.2">
       <c r="A18"/>
@@ -4323,10 +4780,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4385,42 +4842,42 @@
     </row>
     <row r="4" spans="1:7" ht="86.4">
       <c r="A4" s="46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2">
       <c r="A5" s="46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>75</v>
@@ -4429,45 +4886,66 @@
     </row>
     <row r="6" spans="1:7" ht="86.4">
       <c r="A6" s="46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="72">
+    <row r="7" spans="1:7" ht="100.8">
       <c r="A7" s="46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" ht="72">
+      <c r="A8" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F8" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4475,23 +4953,24 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F4:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F4:F8">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4550,19 +5029,19 @@
     </row>
     <row r="4" spans="1:7" ht="57.6">
       <c r="A4" s="46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>75</v>
@@ -4571,42 +5050,42 @@
     </row>
     <row r="5" spans="1:7" ht="57.6">
       <c r="A5" s="46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>70</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6">
       <c r="A6" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>75</v>
@@ -4615,46 +5094,88 @@
     </row>
     <row r="7" spans="1:7" ht="57.6">
       <c r="A7" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>268</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="86.4">
+      <c r="A8" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>174</v>
+      <c r="B8" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>269</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>208</v>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="57.6">
+      <c r="A9" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4663,7 +5184,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F4:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2 F4:F10">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4679,10 +5200,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4756,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>27</v>
@@ -4774,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I4" s="23"/>
     </row>
@@ -4783,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>31</v>
@@ -4801,7 +5322,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I5" s="23"/>
     </row>
@@ -4810,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>36</v>
@@ -4837,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>36</v>
@@ -4855,7 +5376,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I7" s="18"/>
     </row>
@@ -4864,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>31</v>
@@ -4891,7 +5412,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>36</v>
@@ -4900,10 +5421,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>48</v>
@@ -4927,10 +5448,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>51</v>
@@ -4945,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>27</v>
@@ -4954,16 +5475,16 @@
         <v>27</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I11" s="18"/>
     </row>
@@ -4972,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>36</v>
@@ -4981,16 +5502,16 @@
         <v>27</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>86</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -4999,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>36</v>
@@ -5008,18 +5529,72 @@
         <v>40</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6">
+      <c r="A14" s="41">
+        <v>11</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="57.6">
+      <c r="A15" s="41">
+        <v>12</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5027,10 +5602,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15">
       <formula1>"Blocking, Critical, High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15">
       <formula1>"High, Medium, Low, Not Planned"</formula1>
     </dataValidation>
   </dataValidations>
